--- a/names.xlsx
+++ b/names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\agsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{177E5AA9-E4A2-4AD4-9E9A-E5B5FE14066F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B01980-4187-4A54-8D49-88C0161320CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4367F38C-3CA9-435A-9322-299087251536}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4367F38C-3CA9-435A-9322-299087251536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Ukraine</t>
   </si>
@@ -107,9 +107,6 @@
     <t>HR</t>
   </si>
   <si>
-    <t>United Kingdom (Pre-Brexit)</t>
-  </si>
-  <si>
     <t>GB</t>
   </si>
   <si>
@@ -165,6 +162,21 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>NON-EU</t>
   </si>
 </sst>
 </file>
@@ -516,188 +528,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28172BFE-84C3-402B-8CD7-C5866C95F902}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>A2</f>
+        <v>Ukraine</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C22" si="0">A7</f>
+        <v>Poland</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Netherlands</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Italy</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>France</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Germany</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
-        <v>41</v>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Austria</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
